--- a/design/database design specification-new.xlsx
+++ b/design/database design specification-new.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="157">
   <si>
     <t>NAME</t>
   </si>
@@ -182,9 +182,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>price</t>
-  </si>
-  <si>
     <t>varchar(255)</t>
   </si>
   <si>
@@ -524,6 +521,9 @@
   </si>
   <si>
     <t>0-inactive; 1-active;</t>
+  </si>
+  <si>
+    <t>transactionprice</t>
   </si>
 </sst>
 </file>
@@ -1030,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A208" workbookViewId="0">
-      <selection activeCell="B219" sqref="B219"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1078,7 +1078,7 @@
         <v>15</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="19"/>
@@ -1112,11 +1112,11 @@
       </c>
       <c r="E6" s="9"/>
       <c r="F6" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="2:8">
@@ -1128,7 +1128,7 @@
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="4"/>
@@ -1142,7 +1142,7 @@
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G8" s="10"/>
       <c r="H8" s="8"/>
@@ -1156,7 +1156,7 @@
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G9" s="11"/>
       <c r="H9" s="4"/>
@@ -1170,25 +1170,25 @@
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G10" s="10"/>
       <c r="H10" s="8"/>
     </row>
     <row r="11" spans="2:8">
       <c r="C11" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G11" s="10"/>
       <c r="H11" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12" spans="2:8">
@@ -1196,15 +1196,15 @@
         <v>17</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G12" s="11"/>
       <c r="H12" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="2:8">
@@ -1223,7 +1223,7 @@
     </row>
     <row r="14" spans="2:8">
       <c r="C14" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>22</v>
@@ -1235,42 +1235,42 @@
     </row>
     <row r="15" spans="2:8">
       <c r="C15" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E15" s="9"/>
       <c r="F15" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G15" s="10"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="2:8">
       <c r="C16" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:8">
       <c r="C17" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="8"/>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G19" s="10"/>
       <c r="H19" s="8"/>
@@ -1310,35 +1310,35 @@
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8">
       <c r="C21" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E21" s="9"/>
       <c r="F21" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G21" s="10"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="2:8">
       <c r="C22" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="4"/>
@@ -1352,7 +1352,7 @@
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G23" s="10"/>
       <c r="H23" s="8"/>
@@ -1371,21 +1371,21 @@
     </row>
     <row r="25" spans="2:8">
       <c r="C25" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>7</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G25" s="10"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="2:8" ht="30">
       <c r="C26" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>19</v>
@@ -1396,7 +1396,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.75" thickBot="1">
@@ -1458,7 +1458,7 @@
     </row>
     <row r="33" spans="2:8">
       <c r="C33" s="17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>12</v>
@@ -1467,12 +1467,12 @@
       <c r="F33" s="19"/>
       <c r="G33" s="18"/>
       <c r="H33" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="30">
       <c r="C34" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>19</v>
@@ -1483,7 +1483,7 @@
       <c r="F34" s="6"/>
       <c r="G34" s="5"/>
       <c r="H34" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="35" spans="2:8">
@@ -1500,7 +1500,7 @@
     </row>
     <row r="36" spans="2:8">
       <c r="C36" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>46</v>
@@ -1509,7 +1509,7 @@
       <c r="F36" s="6"/>
       <c r="G36" s="5"/>
       <c r="H36" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="2:8">
@@ -1533,7 +1533,7 @@
         <v>35</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E38" s="5">
         <v>1</v>
@@ -1541,7 +1541,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="15.75" thickBot="1">
@@ -1549,11 +1549,11 @@
         <v>44</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E39" s="14"/>
       <c r="F39" s="26" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G39" s="14"/>
       <c r="H39" s="12"/>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="46" spans="2:8">
       <c r="C46" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>12</v>
@@ -1625,12 +1625,12 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="47" spans="2:8">
       <c r="C47" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>46</v>
@@ -1639,12 +1639,12 @@
       <c r="F47" s="6"/>
       <c r="G47" s="5"/>
       <c r="H47" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="2:8">
       <c r="C48" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>25</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="49" spans="2:8">
       <c r="C49" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>25</v>
@@ -1677,12 +1677,12 @@
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="2:8">
       <c r="C51" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>19</v>
@@ -1694,7 +1694,7 @@
     </row>
     <row r="52" spans="2:8">
       <c r="C52" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>46</v>
@@ -1706,14 +1706,14 @@
     </row>
     <row r="53" spans="2:8">
       <c r="C53" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E53" s="11"/>
       <c r="F53" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="4"/>
@@ -1723,18 +1723,18 @@
         <v>44</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G54" s="10"/>
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="2:8">
       <c r="C55" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>19</v>
@@ -1757,7 +1757,7 @@
         <v>4</v>
       </c>
       <c r="C59" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="60" spans="2:8" ht="15.75" thickBot="1">
@@ -1793,12 +1793,12 @@
         <v>6</v>
       </c>
       <c r="H61" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="2:8">
       <c r="C62" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>19</v>
@@ -1810,14 +1810,14 @@
     </row>
     <row r="63" spans="2:8">
       <c r="C63" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G63" s="10"/>
       <c r="H63" s="8"/>
@@ -1843,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="C68" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="15.75" thickBot="1">
@@ -1879,15 +1879,15 @@
         <v>6</v>
       </c>
       <c r="H70" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="71" spans="2:8">
       <c r="C71" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="6"/>
@@ -1923,7 +1923,7 @@
         <v>6</v>
       </c>
       <c r="C77" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="78" spans="2:8" ht="15.75" thickBot="1">
@@ -1959,21 +1959,21 @@
         <v>6</v>
       </c>
       <c r="H79" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="80" spans="2:8">
       <c r="C80" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="6"/>
       <c r="G80" s="5"/>
       <c r="H80" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="81" spans="2:8">
@@ -1981,7 +1981,7 @@
         <v>28</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E81" s="9"/>
       <c r="F81" s="10"/>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="82" spans="2:8">
       <c r="C82" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D82" s="4" t="s">
         <v>19</v>
@@ -2013,8 +2013,12 @@
       <c r="H83" s="8"/>
     </row>
     <row r="84" spans="2:8">
-      <c r="C84" s="3"/>
-      <c r="D84" s="4"/>
+      <c r="C84" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>25</v>
+      </c>
       <c r="E84" s="11"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
@@ -2033,7 +2037,7 @@
         <v>7</v>
       </c>
       <c r="C88" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="15.75" thickBot="1">
@@ -2069,7 +2073,7 @@
         <v>6</v>
       </c>
       <c r="H90" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="91" spans="2:8">
@@ -2077,27 +2081,27 @@
         <v>28</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E91" s="5"/>
       <c r="F91" s="6"/>
       <c r="G91" s="5"/>
       <c r="H91" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="92" spans="2:8">
       <c r="C92" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E92" s="9"/>
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
       <c r="H92" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="93" spans="2:8">
@@ -2114,7 +2118,7 @@
     </row>
     <row r="94" spans="2:8">
       <c r="C94" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D94" s="8" t="s">
         <v>19</v>
@@ -2126,7 +2130,7 @@
     </row>
     <row r="95" spans="2:8">
       <c r="C95" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D95" s="4" t="s">
         <v>19</v>
@@ -2135,7 +2139,7 @@
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
       <c r="H95" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="15.75" thickBot="1">
@@ -2151,7 +2155,7 @@
         <v>8</v>
       </c>
       <c r="C99" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="100" spans="2:8" ht="15.75" thickBot="1">
@@ -2185,12 +2189,12 @@
       <c r="F101" s="19"/>
       <c r="G101" s="18"/>
       <c r="H101" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="102" spans="2:8">
       <c r="C102" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>19</v>
@@ -2201,7 +2205,7 @@
         <v>6</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="2:8">
@@ -2209,7 +2213,7 @@
         <v>28</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E103" s="9"/>
       <c r="F103" s="10"/>
@@ -2218,7 +2222,7 @@
     </row>
     <row r="104" spans="2:8">
       <c r="C104" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D104" s="4" t="s">
         <v>19</v>
@@ -2250,7 +2254,7 @@
     </row>
     <row r="107" spans="2:8">
       <c r="C107" s="7" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="D107" s="8" t="s">
         <v>25</v>
@@ -2262,7 +2266,7 @@
     </row>
     <row r="108" spans="2:8">
       <c r="C108" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>19</v>
@@ -2274,28 +2278,28 @@
     </row>
     <row r="109" spans="2:8">
       <c r="C109" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D109" s="8" t="s">
         <v>46</v>
       </c>
       <c r="E109" s="9"/>
       <c r="F109" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G109" s="10"/>
       <c r="H109" s="8"/>
     </row>
     <row r="110" spans="2:8">
       <c r="C110" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E110" s="11"/>
       <c r="F110" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G110" s="11"/>
       <c r="H110" s="4"/>
@@ -2305,11 +2309,11 @@
         <v>44</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E111" s="9"/>
       <c r="F111" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G111" s="10"/>
       <c r="H111" s="8"/>
@@ -2328,7 +2332,7 @@
     </row>
     <row r="113" spans="2:8">
       <c r="C113" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D113" s="8" t="s">
         <v>25</v>
@@ -2340,7 +2344,7 @@
     </row>
     <row r="114" spans="2:8">
       <c r="C114" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>25</v>
@@ -2363,7 +2367,7 @@
         <v>9</v>
       </c>
       <c r="C118" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="119" spans="2:8" ht="15.75" thickBot="1">
@@ -2399,7 +2403,7 @@
         <v>6</v>
       </c>
       <c r="H120" s="16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="121" spans="2:8">
@@ -2407,7 +2411,7 @@
         <v>28</v>
       </c>
       <c r="D121" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="6"/>
@@ -2418,10 +2422,10 @@
     </row>
     <row r="122" spans="2:8">
       <c r="C122" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D122" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E122" s="9"/>
       <c r="F122" s="10"/>
@@ -2430,10 +2434,10 @@
     </row>
     <row r="123" spans="2:8">
       <c r="C123" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D123" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="6"/>
@@ -2442,7 +2446,7 @@
     </row>
     <row r="124" spans="2:8">
       <c r="C124" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D124" s="8" t="s">
         <v>19</v>
@@ -2454,7 +2458,7 @@
     </row>
     <row r="125" spans="2:8">
       <c r="C125" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D125" s="4" t="s">
         <v>19</v>
@@ -2466,21 +2470,21 @@
     </row>
     <row r="126" spans="2:8">
       <c r="C126" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D126" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E126" s="9"/>
       <c r="F126" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G126" s="10"/>
       <c r="H126" s="8"/>
     </row>
     <row r="127" spans="2:8">
       <c r="C127" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D127" s="4" t="s">
         <v>25</v>
@@ -2492,7 +2496,7 @@
     </row>
     <row r="128" spans="2:8">
       <c r="C128" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D128" s="8" t="s">
         <v>19</v>
@@ -2515,7 +2519,7 @@
         <v>10</v>
       </c>
       <c r="C132" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="133" spans="2:8" ht="15.75" thickBot="1">
@@ -2551,21 +2555,21 @@
         <v>6</v>
       </c>
       <c r="H134" s="16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="135" spans="2:8">
       <c r="C135" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D135" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="6"/>
       <c r="G135" s="5"/>
       <c r="H135" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="136" spans="2:8">
@@ -2582,21 +2586,21 @@
     </row>
     <row r="137" spans="2:8">
       <c r="C137" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E137" s="5"/>
       <c r="F137" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G137" s="5"/>
       <c r="H137" s="4"/>
     </row>
     <row r="138" spans="2:8">
       <c r="C138" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D138" s="8" t="s">
         <v>22</v>
@@ -2615,7 +2619,7 @@
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G139" s="5"/>
       <c r="H139" s="4"/>
@@ -2629,7 +2633,7 @@
       </c>
       <c r="E140" s="9"/>
       <c r="F140" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G140" s="10"/>
       <c r="H140" s="8"/>
@@ -2643,7 +2647,7 @@
       </c>
       <c r="E141" s="9"/>
       <c r="F141" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G141" s="10"/>
       <c r="H141" s="8"/>
@@ -2662,7 +2666,7 @@
     </row>
     <row r="143" spans="2:8">
       <c r="C143" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D143" s="8" t="s">
         <v>7</v>
@@ -2674,7 +2678,7 @@
     </row>
     <row r="144" spans="2:8">
       <c r="C144" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D144" s="4" t="s">
         <v>7</v>
@@ -2709,7 +2713,7 @@
         <v>11</v>
       </c>
       <c r="C149" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="150" spans="2:8" ht="15.75" thickBot="1">
@@ -2745,12 +2749,12 @@
         <v>6</v>
       </c>
       <c r="H151" s="16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="152" spans="2:8">
       <c r="C152" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D152" s="4" t="s">
         <v>12</v>
@@ -2762,21 +2766,21 @@
     </row>
     <row r="153" spans="2:8">
       <c r="C153" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D153" s="8" t="s">
         <v>25</v>
       </c>
       <c r="E153" s="9"/>
       <c r="F153" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G153" s="10"/>
       <c r="H153" s="8"/>
     </row>
     <row r="154" spans="2:8">
       <c r="C154" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D154" s="4" t="s">
         <v>25</v>
@@ -2791,11 +2795,11 @@
         <v>44</v>
       </c>
       <c r="D155" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E155" s="9"/>
       <c r="F155" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G155" s="10"/>
       <c r="H155" s="8"/>
@@ -2821,7 +2825,7 @@
         <v>12</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="161" spans="2:8" ht="15.75" thickBot="1">
@@ -2857,15 +2861,15 @@
         <v>6</v>
       </c>
       <c r="H162" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="163" spans="2:8">
       <c r="C163" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E163" s="5"/>
       <c r="F163" s="6"/>
@@ -2874,7 +2878,7 @@
     </row>
     <row r="164" spans="2:8" ht="30">
       <c r="C164" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D164" s="8" t="s">
         <v>19</v>
@@ -2883,7 +2887,7 @@
       <c r="F164" s="10"/>
       <c r="G164" s="10"/>
       <c r="H164" s="8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="165" spans="2:8">
@@ -2895,7 +2899,7 @@
       </c>
       <c r="E165" s="5"/>
       <c r="F165" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G165" s="5"/>
       <c r="H165" s="4"/>
@@ -2909,17 +2913,17 @@
       </c>
       <c r="E166" s="9"/>
       <c r="F166" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G166" s="10"/>
       <c r="H166" s="8"/>
     </row>
     <row r="167" spans="2:8">
       <c r="C167" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D167" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="D167" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="E167" s="5"/>
       <c r="F167" s="6"/>
@@ -2928,62 +2932,62 @@
     </row>
     <row r="168" spans="2:8">
       <c r="C168" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D168" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E168" s="9"/>
       <c r="F168" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G168" s="10"/>
       <c r="H168" s="8"/>
     </row>
     <row r="169" spans="2:8">
       <c r="C169" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D169" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E169" s="5"/>
       <c r="F169" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G169" s="5"/>
       <c r="H169" s="4"/>
     </row>
     <row r="170" spans="2:8">
       <c r="C170" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D170" s="8" t="s">
         <v>98</v>
-      </c>
-      <c r="D170" s="8" t="s">
-        <v>99</v>
       </c>
       <c r="E170" s="9"/>
       <c r="F170" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G170" s="10"/>
       <c r="H170" s="8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="171" spans="2:8">
       <c r="C171" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D171" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E171" s="5"/>
       <c r="F171" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G171" s="5"/>
       <c r="H171" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="172" spans="2:8">
@@ -2995,25 +2999,25 @@
       </c>
       <c r="E172" s="9"/>
       <c r="F172" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G172" s="10"/>
       <c r="H172" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="173" spans="2:8" ht="30">
       <c r="C173" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E173" s="5"/>
       <c r="F173" s="6"/>
       <c r="G173" s="5"/>
       <c r="H173" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="174" spans="2:8" ht="15.75" thickBot="1">
@@ -3037,7 +3041,7 @@
         <v>13</v>
       </c>
       <c r="C176" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="177" spans="2:8" ht="15.75" thickBot="1">
@@ -3073,12 +3077,12 @@
         <v>6</v>
       </c>
       <c r="H178" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="179" spans="2:8" ht="30">
       <c r="C179" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D179" s="4" t="s">
         <v>19</v>
@@ -3086,24 +3090,24 @@
       <c r="E179" s="5"/>
       <c r="F179" s="6"/>
       <c r="G179" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="180" spans="2:8">
       <c r="C180" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D180" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E180" s="9"/>
       <c r="F180" s="10"/>
       <c r="G180" s="10"/>
       <c r="H180" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="181" spans="2:8">
@@ -3111,15 +3115,15 @@
         <v>44</v>
       </c>
       <c r="D181" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E181" s="5"/>
       <c r="F181" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="G181" s="5"/>
       <c r="H181" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="182" spans="2:8">
@@ -3132,16 +3136,16 @@
     </row>
     <row r="183" spans="2:8">
       <c r="C183" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D183" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E183" s="5"/>
       <c r="F183" s="6"/>
       <c r="G183" s="5"/>
       <c r="H183" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="184" spans="2:8" ht="15.75" thickBot="1">
@@ -3165,7 +3169,7 @@
         <v>14</v>
       </c>
       <c r="C186" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="187" spans="2:8" ht="15.75" thickBot="1">
@@ -3201,12 +3205,12 @@
         <v>6</v>
       </c>
       <c r="H188" s="16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="189" spans="2:8">
       <c r="C189" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D189" s="4" t="s">
         <v>12</v>
@@ -3221,7 +3225,7 @@
         <v>44</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E190" s="9"/>
       <c r="F190" s="10"/>
@@ -3257,7 +3261,7 @@
         <v>15</v>
       </c>
       <c r="C195" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="196" spans="2:8" ht="15.75" thickBot="1">
@@ -3293,12 +3297,12 @@
         <v>6</v>
       </c>
       <c r="H197" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="198" spans="2:8">
       <c r="C198" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D198" s="4" t="s">
         <v>12</v>
@@ -3310,7 +3314,7 @@
     </row>
     <row r="199" spans="2:8">
       <c r="C199" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D199" s="8" t="s">
         <v>22</v>
@@ -3319,7 +3323,7 @@
       <c r="F199" s="10"/>
       <c r="G199" s="10"/>
       <c r="H199" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="200" spans="2:8">
@@ -3343,7 +3347,7 @@
         <v>16</v>
       </c>
       <c r="C204" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="205" spans="2:8" ht="15.75" thickBot="1">
@@ -3379,12 +3383,12 @@
         <v>6</v>
       </c>
       <c r="H206" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="207" spans="2:8">
       <c r="C207" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D207" s="4" t="s">
         <v>12</v>
@@ -3393,15 +3397,15 @@
       <c r="F207" s="6"/>
       <c r="G207" s="5"/>
       <c r="H207" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="208" spans="2:8">
       <c r="C208" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E208" s="9"/>
       <c r="F208" s="10"/>
@@ -3413,11 +3417,11 @@
         <v>44</v>
       </c>
       <c r="D209" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E209" s="5"/>
       <c r="F209" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G209" s="5"/>
       <c r="H209" s="4"/>
@@ -3435,7 +3439,7 @@
         <v>17</v>
       </c>
       <c r="C212" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="213" spans="2:8" ht="15.75" thickBot="1">
@@ -3471,12 +3475,12 @@
         <v>6</v>
       </c>
       <c r="H214" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="215" spans="2:8">
       <c r="C215" s="23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D215" s="4" t="s">
         <v>22</v>
@@ -3485,21 +3489,21 @@
       <c r="F215" s="6"/>
       <c r="G215" s="5"/>
       <c r="H215" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="216" spans="2:8">
       <c r="C216" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D216" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E216" s="9"/>
       <c r="F216" s="10"/>
       <c r="G216" s="10"/>
       <c r="H216" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="217" spans="2:8" ht="15.75" thickBot="1">
@@ -3515,7 +3519,7 @@
         <v>18</v>
       </c>
       <c r="C219" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="220" spans="2:8" ht="15.75" thickBot="1">
@@ -3551,7 +3555,7 @@
         <v>6</v>
       </c>
       <c r="H221" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="222" spans="2:8">
@@ -3565,12 +3569,12 @@
       <c r="F222" s="6"/>
       <c r="G222" s="5"/>
       <c r="H222" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="223" spans="2:8">
       <c r="C223" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D223" s="8" t="s">
         <v>22</v>
@@ -3582,10 +3586,10 @@
     </row>
     <row r="224" spans="2:8">
       <c r="C224" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D224" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E224" s="5"/>
       <c r="F224" s="6"/>

--- a/design/database design specification-new.xlsx
+++ b/design/database design specification-new.xlsx
@@ -1030,8 +1030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:H225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B109" sqref="B109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
